--- a/03Casos_DCArticulo2.xlsx
+++ b/03Casos_DCArticulo2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:CC46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,316 @@
           <t>Costo</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Line1_1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Line1_2</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Line1_3</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Line1_4</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Line2_1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Line2_2</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Line2_3</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Line2_4</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Line3_1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Line3_2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Line3_3</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Line3_4</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Line4_1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Line4_2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Line4_4</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Line5_1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Line5_2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Line5_3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Line5_4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Line6_1</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Line6_2</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Line6_3</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Line6_4</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Line7_1</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Line7_2</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Line7_3</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Line7_4</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo1_1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo1_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo1_3</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo1_4</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo2_1</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo2_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo2_3</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo2_4</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo3_1</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo3_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo3_3</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo4_4</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo5_1</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo5_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo5_3</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo5_4</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo6_1</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo6_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo6_3</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo6_4</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo7_1</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo7_3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo7_4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo8_1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo8_3</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo8_4</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Trafo9_3</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Trans_Line_1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Trans_Line_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Trans_Line_3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Trans_Line_4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Trans_Line_5</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Trans_Line_6</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Trans_Line_7</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Trans_Line_8</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -538,12 +848,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.4954820086737</t>
+          <t>59.07549512979004</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -558,7 +868,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>89.62059579885269</t>
+          <t>89.62065395311143</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -568,7 +878,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>72.79419447858733</t>
+          <t>99.99999987499963</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -583,7 +893,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>89.62003271475653</t>
+          <t>89.62013689839168</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -593,18 +903,204 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>341.53030500087027</t>
+          <t>338.3162858562928</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>350.0000000571262</t>
+          <t>350.00000001540434</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18699.41201491612</t>
-        </is>
+          <t>18506.569242862537</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>-4.768524413618131</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-4.628409244919828</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-3.902720508695672</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-4.868191586029397</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.382224310480523</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.3749204221702779</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.196044213953819</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.757517231211192</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12.64071732270071</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11.24264125978972</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>8.0037976258646</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.188582209254695</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9.590322788555522</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.538752010153975</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-5.811465953978322</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.0001981833219514811</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-2.994873726935189</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-7.324069906486361</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-8.060479545531809</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-5.012765602753603</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1.382224310480524</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-1.196044213953819</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.8311029816411377</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-4.00000000124718</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-1.703999938765187</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-4.000000001247181</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-4.000000001247178</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-4.896206539935259</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-4.896201370111081</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-4.000000001250003</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-4.000000001127163</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-2.407067326163683</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-4.000000001196438</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>-3.580754951295148</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>-4.000000001196439</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>-24.99364611727031</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.5894824951638855</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-0.6248896717923746</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-0.6248896717923779</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>2.032570807097871</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>2.032570807097875</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.443725497239757</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.4437254972397571</v>
       </c>
     </row>
     <row r="3">
@@ -625,12 +1121,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106.76055486261382</t>
+          <t>106.7606477126808</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.9117434959372783</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -645,7 +1141,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>91.75248597059715</t>
+          <t>91.75231074116272</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -655,7 +1151,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>99.99999974900895</t>
+          <t>97.78327134587121</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -670,7 +1166,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>91.7511508540283</t>
+          <t>91.75177279935323</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -680,18 +1176,204 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>391.1759349321855</t>
+          <t>388.0480025990679</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>400.0000000652878</t>
+          <t>400.0000000176049</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>20567.91417905874</t>
-        </is>
+          <t>20380.23284341211</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>-4.382783599449636</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-4.628082880830973</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-3.894418183507909</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-4.868009536421274</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-1.190770714900671</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.3755730339822541</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-1.191950950003588</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6.94268708738456</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12.64336978268255</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11.25568927897163</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>8.003900951422892</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9.592364766498399</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.3576802111312838</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.5394594162461</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-5.797841364209399</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.000252551596469689</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-3.353871663101083</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-7.324391777331941</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-8.068760812053656</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-5.012947652361671</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-1.190770714900672</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-1.191950950003588</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.8311029816411378</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-4.00000000124718</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>-1.703999938765187</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>-4.000000001247181</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>-4.000000001247178</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>-4.567606477280844</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>-4.977832714708715</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>-4.917523107815772</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>-4.917517729120696</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>-4.000000001250003</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>-4.000000001127163</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>-2.406222400775184</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>-4.000000001196438</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>-2.989999999997248</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>-4.000000001196439</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>-24.99308314938515</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.3163946709411</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.3163946709410999</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>-0.6382802646589599</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>-0.6382802646589035</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>2.045516369226456</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>2.045516369226459</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.4543150729770366</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.4543150729770365</v>
       </c>
     </row>
     <row r="4">
@@ -712,12 +1394,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>102.22019315122198</t>
+          <t>102.22080959208215</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.120863820382906</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -732,7 +1414,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>87.21600170635585</t>
+          <t>87.21661340085198</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -742,7 +1424,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>11.588976884670961</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -757,7 +1439,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>87.21514106729593</t>
+          <t>87.21579736489664</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -767,18 +1449,204 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>284.77219974525667</t>
+          <t>288.2421984204441</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>299.37177172947554</t>
+          <t>299.3835951197538</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>14319.818625466662</t>
-        </is>
+          <t>14527.999630971797</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.4345932735340072</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-4.628898979642314</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-3.908848619723758</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-4.869553120373505</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.7798291472269224</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-3.752525846700998e-07</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-1.199582604639255</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.09631388136617926</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6.957389085759011</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12.63677762466871</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11.22578914760103</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7.998954017744701</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.587280351725541</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.001583245037458638</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-3.487893978839182</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.537652409305541</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-5.818224010630845</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-6.496806607976703</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-7.323586913433825</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-8.054366978323033</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-5.011404068406879</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.7798291472269226</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.3739270553515248</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-1.199582604639255</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.8311029816411368</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-4.000000001247179</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>-1.703999938765187</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>-4.00000000124718</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>-4.000000001247177</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>-4.522208096074857</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>-4.115889770096713</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-4.872166134412664</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>-4.872157974776131</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>-4.000000001250003</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>-4.000000001127163</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.6534841492477145</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>-4.000000001196438</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>-2.989999999997248</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>-4.000000001196439</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>-24.98362096439966</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.4659259826962435</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>-1.035966699902588</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>-1.035966699902588</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>2.481281506263155</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>2.481281506263159</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.3859861173073795</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.3859861173073835</v>
       </c>
     </row>
     <row r="5">
@@ -799,12 +1667,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>104.56031189837391</t>
+          <t>46.743382863955304</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>34.800193442942806</t>
+          <t>9.94734096531925</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -819,7 +1687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>89.55939656467935</t>
+          <t>89.56070662445103</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -829,7 +1697,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>99.99999987499963</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -844,7 +1712,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>89.5674820795822</t>
+          <t>89.5687838020061</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -854,18 +1722,204 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>318.4873839855783</t>
+          <t>335.82021409436754</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>400.00000025108733</t>
+          <t>400.0000001247187</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>16272.37113370834</t>
-        </is>
+          <t>17890.484114939754</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>-2.000280590158638</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-1.887274163429378</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-3.903225852764998</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-4.88614845948771</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.481895360077867</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-1.196252180063738</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.7954558488509559</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.963941013969464</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13.32240398962553</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11.24245838773802</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>7.957007037537583</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.9639559408059052</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.34392943373436</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.01828247411824728</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.9122133875848775</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3.478940392377415</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-5.812579688043515</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-3.918033047288304</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-6.079835232735547</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-8.059975483256631</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-4.994808729295243</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.139651416505324e-07</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.481895360077867</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-1.196252180063738</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.7954558488509558</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.8311029816411379</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-4.00000000124718</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>-1.703999938765187</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>-4.000000001247178</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>-3.967433828793589</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-4.895607066648655</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>-4.895687839147225</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>-4.000000001250003</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>-4.000000001127163</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>-2.201872901220572</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>-4.000000001196438</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>-3.08947340965044</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>-4.000000001196439</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>-24.99456942754016</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>-0.9597132749109326</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>-1.543249224885687</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>-1.543249224885687</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>3.71560017721006</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>3.715600177210063</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>-0.3296579926357605</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>-0.3296579926357605</v>
       </c>
     </row>
     <row r="6">
@@ -886,12 +1940,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>105.44185921789926</t>
+          <t>105.44341751719028</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.133392936108141</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -906,7 +1960,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>90.4410773126335</t>
+          <t>90.44271276909069</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -916,7 +1970,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>43.800146051212394</t>
+          <t>71.1651441672909</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -931,7 +1985,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>90.44978942654058</t>
+          <t>90.45148863933</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -941,18 +1995,204 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>337.26626494439387</t>
+          <t>357.50276309290194</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>400.00000025099104</t>
+          <t>400.0000001250004</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>17372.648637092898</t>
-        </is>
+          <t>18586.789596318</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.448992741717568</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-4.683658101196141</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-3.899585527545011</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-4.888470349463189</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.775734253890989</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2611565534719466</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-1.194487154921926</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.8420643664574384</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.997787403043854</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12.21426143416667</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11.24771572029475</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>7.950711089750715</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.351550134491621e-07</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.259076053495214</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.0207849413121635</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-2.043607888640802</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.406111302422565</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-5.806386903821604</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-5.055129240445194</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-7.269581639266508</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-8.06360657487145</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-4.992486839319266</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.7757342538909759</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-1.194487154921926</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.8420643664574384</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.8311029816411368</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>-4.00000000124718</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>-1.703999938765187</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>-4.000000001247181</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>-4.000000001247178</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-4.554434175325939</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>-4.711651442922912</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>-4.904427128095051</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-4.904514887520464</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>-4.000000001127163</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>-2.17288214632835</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>-4.000000001196438</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>-2.989999999997247</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>-4.000000001196439</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>-24.99364506569397</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>-0.5138099751579955</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>-0.5138099751579955</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>-1.746723369079266</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>-1.746723369079266</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>3.957167707360286</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>3.957167707360287</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>-0.3688390662445389</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>-0.3688390662445388</v>
       </c>
     </row>
     <row r="7">
@@ -973,12 +2213,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>107.14272335983206</t>
+          <t>107.14259038804647</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.838723214101327</t>
+          <t>8.159113847262534</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -993,7 +2233,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>92.15366844015173</t>
+          <t>92.15359662203042</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1003,7 +2243,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>99.99999974900895</t>
+          <t>99.99999987499963</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1018,7 +2258,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>92.14328398936101</t>
+          <t>92.14310564656314</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1028,18 +2268,204 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>397.2783987524551</t>
+          <t>399.5984063789022</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>400.0000001033924</t>
+          <t>400.00000004041436</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20922.307167253857</t>
-        </is>
+          <t>21061.511456167733</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.4345579853749202</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-4.627978105465429</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-5.411365909704336</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-4.368255370532887</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.7838586389296611</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.3757857936718954</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-1.947014873295867</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6.998503895156999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12.64420434322645</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8.780615007629301</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>7.506224738415289</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.593009700570338</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4967016039426136</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-3.330225138809936</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.539697685109613</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-8.246962847956155</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.49760060786514</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-6.353639729200831</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-7.324495110296849</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-6.555660790526186</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-5.512701818250248</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.7838586389296617</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-1.947014873295981</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4554430471680574</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.8311029816411366</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-4.000000001247179</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>-1.703999938765187</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-4.00000000124718</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>-4.000000001247177</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-4.571425904034501</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>-4.921535966624448</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-4.921431057592796</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>-4.000000001250004</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>-4.000000001127163</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>-2.351722037119921</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>-4.000000001196438</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>-3.071591138469873</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>-4.000000001196439</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>-24.96396839432556</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>-1.194940464138996</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>-1.194940464138996</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>-1.107510984330517</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>-1.107510984330517</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>2.034786096279871</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>2.034786096279873</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.9312605090606183</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.9312605090606181</v>
       </c>
     </row>
     <row r="8">
@@ -1060,12 +2486,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106.82328835206141</t>
+          <t>46.74337144926746</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.998231380284679</t>
+          <t>62.07495114114874</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1080,7 +2506,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>91.82260052111974</t>
+          <t>91.8295485777933</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1090,12 +2516,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>99.99999974900895</t>
+          <t>99.99999987499963</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1105,7 +2531,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>91.82951668547537</t>
+          <t>91.83599885343563</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1115,18 +2541,204 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>395.47363668795015</t>
+          <t>392.48386989664476</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>400.0000004932788</t>
+          <t>399.99999994878533</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20823.664145690444</t>
-        </is>
+          <t>21244.943004993722</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-2.001728511937556</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-4.629180432847205</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-3.895331289875068</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-2.171338208954108</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-1.192209928630418</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.963941013969464</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12.63489259741611</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11.25696945948099</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>9.248714505300187</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.9614590786913758</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.585780049385015</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.256123567370419</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.8450830206920877</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.536820802938855</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-5.800586547098526</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.266028947440449</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-3.852644816147528</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-7.323309334884936</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-8.067850021760776</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-3.723030611317588</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.3733103371373209</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-1.192209928630418</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.7888041297218238</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.8311029816411368</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-4.00000000124718</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-1.703999938765187</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>-4.000000001247181</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-4.000000001247178</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-3.967433714646711</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>-4.918295486182077</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>-4.91835998966152</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-4.000000001250003</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>-4.000000001127163</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>-2.406157937552055</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>-4.000000001196438</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>-3.610749511408735</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>-4.000000001196439</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>-24.99707728549231</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>-0.704631270507361</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>-0.704631270507361</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>-1.57496415255305</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>-1.57496415255305</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>2.028786633189661</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>2.028786633189664</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>-0.5634656844202288</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>-0.5634656844202289</v>
       </c>
     </row>
     <row r="9">
@@ -1147,12 +2759,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>107.05383093557815</t>
+          <t>107.066119965791</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.95129112441944</t>
+          <t>5.789596126728477</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1167,7 +2779,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>92.05668979996808</t>
+          <t>92.06731173784677</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1177,7 +2789,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13.04889323609384</t>
+          <t>99.99999987499963</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1192,7 +2804,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>92.06257382544818</t>
+          <t>92.07504273248608</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1202,18 +2814,204 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>396.1732789215077</t>
+          <t>396.9980704378533</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>400.00000022075903</t>
+          <t>400.00000011271607</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20858.665789680515</t>
-        </is>
+          <t>20907.799481909882</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.4376604388854654</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-4.628605050175178</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-3.893696336080531</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-4.04198895308477</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.7823974826787152</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3744979710851482</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-1.19151399878984</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.9859411179717806</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.00066452836654</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12.63936199157161</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11.25795030451734</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7.140676772664088</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.589250499505917</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.8394099201703399</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-2.478632782107723</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>2.538199099703744</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-5.797170585985111</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.8287517660503312</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-5.495287560536098</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-7.323876796489341</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-8.069480828530834</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-5.838855436010215</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.7823974826787151</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-1.19151399878984</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.8311029816411369</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-4.000000001247179</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-1.703999938765187</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>-4.00000000124718</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>-4.000000001247177</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-4.570661199811947</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>-4.920673117782612</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>-4.920750428452025</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>-4.000000001250003</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>-2.369539380709496</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>-4.000000001196438</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>-3.047895961264532</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>-4.000000001196439</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>-24.99466227132556</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>-0.7585131140530805</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>-0.7585131140530805</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>-1.534020036454858</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>-1.534020036454986</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>2.031665953549568</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>2.031665953549572</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>-0.6201770383574153</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>-0.6201770383574153</v>
       </c>
     </row>
     <row r="10">
@@ -1234,12 +3032,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>105.41860352451202</t>
+          <t>105.40363783309922</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>34.749672585256086</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1254,7 +3052,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90.41907338111682</t>
+          <t>90.40453431869402</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1264,7 +3062,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>70.50440648033529</t>
+          <t>99.99999987499963</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1279,7 +3077,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>90.43001065345263</t>
+          <t>29.254288572626137</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1289,18 +3087,204 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>356.77209403941674</t>
+          <t>359.8121331846752</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>400.0000002395249</t>
+          <t>400.000000119644</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18543.64876677419</t>
-        </is>
+          <t>19338.103383836315</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-4.630886366549243</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-3.896769725338349</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-2.615957845235898</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.000473134066576</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-1.193572406125907</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6.547535952677578</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12.62164352383674</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11.24552333306728</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>9.399893068077228</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.4491643038699882</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.575504434202402</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.510378273327312</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-2.511920171128559</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.532785196352818</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-5.798742404133733</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-2.307122290543357</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-5.526173380860047</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-7.321626886104333</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-8.066415234857512</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-7.26055595930467</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1.000473134066576</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3698169615132633</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-1.193572406125907</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.8311029816411367</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-4.00000000124718</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-1.703999938765187</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>-4.000000001247181</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>-4.000000001247178</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>-4.554036378485028</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-4.904045343591084</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>-4.292542886853425</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>-4.000000001250003</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>-4.000000001127163</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>-2.340975872305235</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>-4.000000001196438</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>-3.337496725849809</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>-24.98388513560784</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>-1.393797113007853</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>-1.735220032837349</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>-1.735220032837349</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>2.0202650413115</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>2.020265041311504</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>-1.115242648632124</v>
       </c>
     </row>
     <row r="37">
@@ -1383,67 +3367,67 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-399.99999997111746</t>
+          <t>-400.0000000356312</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-420.0000001243805</t>
+          <t>-420.0000000374189</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-350.0000000571262</t>
+          <t>-350.00000001540434</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-298.9999999935089</t>
+          <t>-298.9999999997249</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-400.00000010462</t>
+          <t>-400.0000000410847</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-400.0000001049183</t>
+          <t>-400.0000000412478</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-400.0000001033924</t>
+          <t>-400.00000004041436</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-400.0000002510867</t>
+          <t>-400.00000012471844</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-400.00000025099104</t>
+          <t>-400.0000001250004</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>-400.0000004932788</t>
+          <t>-399.99999994878533</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-420.00000022297763</t>
+          <t>-420.00000009118696</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-400.00000022075903</t>
+          <t>-400.00000011271607</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-400.0000002395249</t>
+          <t>-400.000000119644</t>
         </is>
       </c>
     </row>
@@ -1455,67 +3439,67 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-399.99999997111746</t>
+          <t>-400.0000000356312</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-420.0000001243805</t>
+          <t>-420.0000000374189</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-350.0000000571262</t>
+          <t>-350.00000001540434</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-298.9999999935089</t>
+          <t>-298.9999999997249</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-400.00000010462</t>
+          <t>-400.0000000410847</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-400.0000001049183</t>
+          <t>-400.0000000412478</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-400.0000001033924</t>
+          <t>-400.00000004041436</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-400.0000002510867</t>
+          <t>-400.00000012471844</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-400.00000025099104</t>
+          <t>-400.0000001250004</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>-400.0000004932788</t>
+          <t>-399.99999994878533</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-420.00000022297763</t>
+          <t>-420.00000009118696</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-400.00000022075903</t>
+          <t>-400.00000011271607</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>-400.0000002395249</t>
+          <t>-400.000000119644</t>
         </is>
       </c>
     </row>
@@ -1527,67 +3511,67 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-399.99999997111746</t>
+          <t>-400.0000000356312</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-420.0000001243805</t>
+          <t>-420.0000000374189</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-350.0000000571262</t>
+          <t>-350.00000001540434</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-298.9999999935089</t>
+          <t>-298.9999999997249</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-400.00000010462</t>
+          <t>-400.0000000410847</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-400.0000001049183</t>
+          <t>-400.0000000412478</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-400.0000001033924</t>
+          <t>-400.00000004041436</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-400.0000002510867</t>
+          <t>-400.00000012471844</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-400.00000025099104</t>
+          <t>-400.0000001250004</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>-400.0000004932788</t>
+          <t>-399.99999994878533</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>-420.00000022297763</t>
+          <t>-420.00000009118696</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-400.00000022075903</t>
+          <t>-400.00000011271607</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-400.0000002395249</t>
+          <t>-400.000000119644</t>
         </is>
       </c>
     </row>
@@ -1599,67 +3583,67 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-399.99999997111746</t>
+          <t>-400.0000000356312</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-420.0000001243805</t>
+          <t>-420.0000000374189</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-350.0000000571262</t>
+          <t>-350.00000001540434</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-298.9999999935089</t>
+          <t>-298.9999999997249</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-400.00000010462</t>
+          <t>-400.0000000410847</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-400.0000001049183</t>
+          <t>-400.0000000412478</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-400.0000001033924</t>
+          <t>-400.00000004041436</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-400.0000002510867</t>
+          <t>-400.00000012471844</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-400.00000025099104</t>
+          <t>-400.0000001250004</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>-400.0000004932788</t>
+          <t>-399.99999994878533</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>-420.00000022297763</t>
+          <t>-420.00000009118696</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-400.00000022075903</t>
+          <t>-400.00000011271607</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>-400.0000002395249</t>
+          <t>-400.000000119644</t>
         </is>
       </c>
     </row>
@@ -1671,67 +3655,67 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-399.99999997111746</t>
+          <t>-400.0000000356312</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-420.0000001243805</t>
+          <t>-420.0000000374189</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-350.0000000571262</t>
+          <t>-350.00000001540434</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-298.9999999935089</t>
+          <t>-298.9999999997249</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-400.00000010462</t>
+          <t>-400.0000000410847</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-400.0000001049183</t>
+          <t>-400.0000000412478</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-400.0000001033924</t>
+          <t>-400.00000004041436</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-400.0000002510867</t>
+          <t>-400.00000012471844</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-400.00000025099104</t>
+          <t>-400.0000001250004</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>-400.0000004932788</t>
+          <t>-399.99999994878533</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-420.00000022297763</t>
+          <t>-420.00000009118696</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-400.00000022075903</t>
+          <t>-400.00000011271607</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>-400.0000002395249</t>
+          <t>-400.000000119644</t>
         </is>
       </c>
     </row>
@@ -1743,67 +3727,67 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-399.99999997111746</t>
+          <t>-400.0000000356312</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-420.0000001243805</t>
+          <t>-420.0000000374189</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-350.0000000571262</t>
+          <t>-350.00000001540434</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-298.9999999935089</t>
+          <t>-298.9999999997249</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-400.00000010462</t>
+          <t>-400.0000000410847</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-400.0000001049183</t>
+          <t>-400.0000000412478</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-400.0000001033924</t>
+          <t>-400.00000004041436</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>-400.0000002510867</t>
+          <t>-400.00000012471844</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-400.00000025099104</t>
+          <t>-400.0000001250004</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>-400.0000004932788</t>
+          <t>-399.99999994878533</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>-420.00000022297763</t>
+          <t>-420.00000009118696</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-400.00000022075903</t>
+          <t>-400.00000011271607</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>-400.0000002395249</t>
+          <t>-400.000000119644</t>
         </is>
       </c>
     </row>
@@ -1815,67 +3799,67 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-399.99999997111746</t>
+          <t>-400.0000000356312</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-420.0000001243805</t>
+          <t>-420.0000000374189</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-350.0000000571262</t>
+          <t>-350.00000001540434</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-298.9999999935089</t>
+          <t>-298.9999999997249</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-400.00000010462</t>
+          <t>-400.0000000410847</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-400.0000001049183</t>
+          <t>-400.0000000412478</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-400.0000001033924</t>
+          <t>-400.00000004041436</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-400.0000002510867</t>
+          <t>-400.00000012471844</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-400.00000025099104</t>
+          <t>-400.0000001250004</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>-400.0000004932788</t>
+          <t>-399.99999994878533</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>-420.00000022297763</t>
+          <t>-420.00000009118696</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-400.00000022075903</t>
+          <t>-400.00000011271607</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>-400.0000002395249</t>
+          <t>-400.000000119644</t>
         </is>
       </c>
     </row>
@@ -1887,67 +3871,67 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-399.99999997111746</t>
+          <t>-400.0000000356312</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-420.0000001243805</t>
+          <t>-420.0000000374189</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-350.0000000571262</t>
+          <t>-350.00000001540434</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-298.9999999935089</t>
+          <t>-298.9999999997249</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-400.00000010462</t>
+          <t>-400.0000000410847</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-400.0000001049183</t>
+          <t>-400.0000000412478</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-400.0000001033924</t>
+          <t>-400.00000004041436</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-400.0000002510867</t>
+          <t>-400.00000012471844</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-400.00000025099104</t>
+          <t>-400.0000001250004</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>-400.0000004932788</t>
+          <t>-399.99999994878533</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-420.00000022297763</t>
+          <t>-420.00000009118696</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-400.00000022075903</t>
+          <t>-400.00000011271607</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>-400.0000002395249</t>
+          <t>-400.000000119644</t>
         </is>
       </c>
     </row>
@@ -1959,67 +3943,67 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-399.99999997111746</t>
+          <t>-400.0000000356312</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-420.0000001243805</t>
+          <t>-420.0000000374189</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-350.0000000571262</t>
+          <t>-350.00000001540434</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-298.9999999935089</t>
+          <t>-298.9999999997249</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-400.00000010462</t>
+          <t>-400.0000000410847</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-400.0000001049183</t>
+          <t>-400.0000000412478</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-400.0000001033924</t>
+          <t>-400.00000004041436</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>-400.0000002510867</t>
+          <t>-400.00000012471844</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-400.00000025099104</t>
+          <t>-400.0000001250004</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>-400.0000004932788</t>
+          <t>-399.99999994878533</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>-420.00000022297763</t>
+          <t>-420.00000009118696</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-400.00000022075903</t>
+          <t>-400.00000011271607</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>-400.0000002395249</t>
+          <t>-400.000000119644</t>
         </is>
       </c>
     </row>
